--- a/02_bases_procesadas/02_cambios_grupos_pib.xlsx
+++ b/02_bases_procesadas/02_cambios_grupos_pib.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">grupo_pib</t>
   </si>
@@ -41,16 +41,22 @@
     <t xml:space="preserve">value_2021</t>
   </si>
   <si>
-    <t xml:space="preserve">diff_2018_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff_2021_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff_2021_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diff_2021_2020</t>
+    <t xml:space="preserve">value_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2019_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2022_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2022_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2022_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2021_2019</t>
   </si>
   <si>
     <t xml:space="preserve">PIB per cápita alto</t>
@@ -443,497 +449,575 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>67.9632994039623</v>
+        <v>68.2340700006417</v>
       </c>
       <c r="D2" t="n">
-        <v>68.8714665370647</v>
+        <v>68.6071583811757</v>
       </c>
       <c r="E2" t="n">
-        <v>68.8843670914337</v>
+        <v>68.8203042183978</v>
       </c>
       <c r="F2" t="n">
-        <v>70.2829543242987</v>
+        <v>70.0943722052223</v>
       </c>
       <c r="G2" t="n">
-        <v>70.297096993196</v>
+        <v>70.2728347562498</v>
       </c>
       <c r="H2" t="n">
-        <v>69.4592472745862</v>
+        <v>68.8493944087374</v>
       </c>
       <c r="I2" t="n">
-        <v>68.9054150001772</v>
+        <v>68.6602673895307</v>
       </c>
       <c r="J2" t="n">
-        <v>2.31965492033643</v>
+        <v>71.3280496342684</v>
       </c>
       <c r="K2" t="n">
-        <v>0.942115596214933</v>
+        <v>2.03876475560814</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.3775393241215</v>
+        <v>3.09397963362667</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.553832274408975</v>
+        <v>1.05521487801853</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.66778224473765</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.61256736671912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>79.9397610631273</v>
+        <v>79.6358152240473</v>
       </c>
       <c r="D3" t="n">
-        <v>81.9265446260749</v>
+        <v>80.1312592907583</v>
       </c>
       <c r="E3" t="n">
-        <v>80.9696372389691</v>
+        <v>79.9355231610577</v>
       </c>
       <c r="F3" t="n">
-        <v>79.6869894066621</v>
+        <v>79.1653777310338</v>
       </c>
       <c r="G3" t="n">
-        <v>79.088876075634</v>
+        <v>78.4579416606623</v>
       </c>
       <c r="H3" t="n">
-        <v>77.5135609961632</v>
+        <v>74.4736061964514</v>
       </c>
       <c r="I3" t="n">
-        <v>75.0385091192173</v>
+        <v>74.1850071568278</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2527716564652</v>
+        <v>80.3971136394792</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.90125194391001</v>
+        <v>-1.17787356338505</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.64848028744481</v>
+        <v>0.761298415431881</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.47505187694595</v>
+        <v>1.93917197881693</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.21210648265135</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-4.27293450383442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>70.6249548120276</v>
+        <v>72.3462049420463</v>
       </c>
       <c r="D4" t="n">
-        <v>70.3639092123846</v>
+        <v>72.469818877607</v>
       </c>
       <c r="E4" t="n">
-        <v>70.0619553087381</v>
+        <v>72.2615267748057</v>
       </c>
       <c r="F4" t="n">
-        <v>71.0727239965409</v>
+        <v>72.6364849989325</v>
       </c>
       <c r="G4" t="n">
-        <v>71.0023778916815</v>
+        <v>72.410530182124</v>
       </c>
       <c r="H4" t="n">
-        <v>68.0283641477341</v>
+        <v>68.6685741671695</v>
       </c>
       <c r="I4" t="n">
-        <v>69.9398687989207</v>
+        <v>69.0945038925132</v>
       </c>
       <c r="J4" t="n">
-        <v>0.44776918451339</v>
+        <v>70.6921616725369</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.685086013106854</v>
+        <v>0.0643252400776362</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.13285519762024</v>
+        <v>-1.65404326950943</v>
       </c>
       <c r="M4" t="n">
-        <v>1.91150465118658</v>
+        <v>-1.71836850958707</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.59765778002368</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-3.31602628961075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>53.3251823367321</v>
+        <v>52.7201898358314</v>
       </c>
       <c r="D5" t="n">
-        <v>54.3239457727348</v>
+        <v>53.2203969751617</v>
       </c>
       <c r="E5" t="n">
-        <v>55.6215087265938</v>
+        <v>54.26386271933</v>
       </c>
       <c r="F5" t="n">
-        <v>60.0891495696932</v>
+        <v>58.4812538857007</v>
       </c>
       <c r="G5" t="n">
-        <v>60.8000370122724</v>
+        <v>59.9500324259633</v>
       </c>
       <c r="H5" t="n">
-        <v>62.8358166798613</v>
+        <v>63.4060028625912</v>
       </c>
       <c r="I5" t="n">
-        <v>61.7378670823938</v>
+        <v>62.7012911192511</v>
       </c>
       <c r="J5" t="n">
-        <v>6.76396723296109</v>
+        <v>62.894873590789</v>
       </c>
       <c r="K5" t="n">
-        <v>8.41268474566164</v>
+        <v>7.22984259013183</v>
       </c>
       <c r="L5" t="n">
-        <v>1.64871751270055</v>
+        <v>10.1746837549576</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.09794959746755</v>
+        <v>2.94484116482573</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.193582471537937</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.7512586932878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>57.9381886232669</v>
+        <v>57.3821575647902</v>
       </c>
       <c r="D6" t="n">
-        <v>58.2215820775518</v>
+        <v>57.7550174227112</v>
       </c>
       <c r="E6" t="n">
-        <v>58.8518068192103</v>
+        <v>58.4685826950079</v>
       </c>
       <c r="F6" t="n">
-        <v>60.062847876667</v>
+        <v>59.3997107630586</v>
       </c>
       <c r="G6" t="n">
-        <v>59.7120725179384</v>
+        <v>59.6519869072905</v>
       </c>
       <c r="H6" t="n">
-        <v>58.8061584446221</v>
+        <v>58.4394769384747</v>
       </c>
       <c r="I6" t="n">
-        <v>56.9977554820877</v>
+        <v>57.2178870627171</v>
       </c>
       <c r="J6" t="n">
-        <v>2.12465925340003</v>
+        <v>60.6603650699118</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.940433141179284</v>
+        <v>2.26982934250029</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.06509239457932</v>
+        <v>3.27820750512164</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.80840296253449</v>
+        <v>1.00837816262135</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.44247800719468</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-2.43409984457333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>68.6783359203187</v>
+        <v>66.1184356123093</v>
       </c>
       <c r="D7" t="n">
-        <v>68.5472672847941</v>
+        <v>66.315484461408</v>
       </c>
       <c r="E7" t="n">
-        <v>69.4872328885684</v>
+        <v>67.7997053034474</v>
       </c>
       <c r="F7" t="n">
-        <v>69.1198612712184</v>
+        <v>67.5740806325383</v>
       </c>
       <c r="G7" t="n">
-        <v>68.058225386485</v>
+        <v>67.1639630242267</v>
       </c>
       <c r="H7" t="n">
-        <v>66.90288881747</v>
+        <v>64.6515005093214</v>
       </c>
       <c r="I7" t="n">
-        <v>61.1250392385414</v>
+        <v>63.0433005068868</v>
       </c>
       <c r="J7" t="n">
-        <v>0.441525350899667</v>
+        <v>68.4776219811371</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.55329668177728</v>
+        <v>1.04552741191733</v>
       </c>
       <c r="L7" t="n">
-        <v>-7.99482203267694</v>
+        <v>2.35918636882781</v>
       </c>
       <c r="M7" t="n">
-        <v>-5.77784957892859</v>
+        <v>1.31365895691047</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.43432147425035</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-4.12066251733988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" t="n">
-        <v>62.1684747746301</v>
+        <v>64.90135245554</v>
       </c>
       <c r="D8" t="n">
-        <v>62.2701561395144</v>
+        <v>65.2457334510411</v>
       </c>
       <c r="E8" t="n">
-        <v>61.2738329380048</v>
+        <v>64.0482705348207</v>
       </c>
       <c r="F8" t="n">
-        <v>62.4096886893089</v>
+        <v>64.2703273998258</v>
       </c>
       <c r="G8" t="n">
-        <v>61.6472425285178</v>
+        <v>63.8980809920516</v>
       </c>
       <c r="H8" t="n">
-        <v>58.2758102694037</v>
+        <v>59.9864005832113</v>
       </c>
       <c r="I8" t="n">
-        <v>58.4487021548432</v>
+        <v>58.3369443188506</v>
       </c>
       <c r="J8" t="n">
-        <v>0.241213914678795</v>
+        <v>62.285039588034</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.71977261978688</v>
+        <v>-1.00327146348838</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.96098653446568</v>
+        <v>-2.61631286750605</v>
       </c>
       <c r="M8" t="n">
-        <v>0.172891885439483</v>
+        <v>-1.61304140401766</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.94809526918339</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-5.56113667320106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>42.967755174852</v>
+        <v>41.1266846265211</v>
       </c>
       <c r="D9" t="n">
-        <v>43.8473228083469</v>
+        <v>41.7038343556844</v>
       </c>
       <c r="E9" t="n">
-        <v>45.7943546310578</v>
+        <v>43.5577722467554</v>
       </c>
       <c r="F9" t="n">
-        <v>48.6589936694736</v>
+        <v>46.3547242568116</v>
       </c>
       <c r="G9" t="n">
-        <v>49.4307496388123</v>
+        <v>47.8939167055931</v>
       </c>
       <c r="H9" t="n">
-        <v>51.2397762469927</v>
+        <v>50.6805297228915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.4195250528783</v>
+        <v>50.273416362414</v>
       </c>
       <c r="J9" t="n">
-        <v>5.69123849462164</v>
+        <v>51.2184336405643</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4517698780263</v>
+        <v>6.76723207907198</v>
       </c>
       <c r="L9" t="n">
-        <v>2.76053138340467</v>
+        <v>10.0917490140432</v>
       </c>
       <c r="M9" t="n">
-        <v>0.179748805885609</v>
+        <v>3.32451693497117</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.945017278150281</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.37949965682089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>62.8740211431857</v>
+        <v>62.0220677197286</v>
       </c>
       <c r="D10" t="n">
-        <v>63.5307148968191</v>
+        <v>63.0080286521652</v>
       </c>
       <c r="E10" t="n">
-        <v>63.9757087147827</v>
+        <v>63.5600276941347</v>
       </c>
       <c r="F10" t="n">
-        <v>64.6187833787599</v>
+        <v>63.8900228252366</v>
       </c>
       <c r="G10" t="n">
-        <v>64.5904023818469</v>
+        <v>64.6593848717537</v>
       </c>
       <c r="H10" t="n">
-        <v>63.6189372438521</v>
+        <v>62.2621793088058</v>
       </c>
       <c r="I10" t="n">
-        <v>62.7986627485606</v>
+        <v>62.7057543119687</v>
       </c>
       <c r="J10" t="n">
-        <v>1.74476223557413</v>
+        <v>66.0796363440689</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0753583946251055</v>
+        <v>2.63731715202514</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.82012063019923</v>
+        <v>4.05756862434031</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.8202744952915</v>
+        <v>1.42025147231517</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.37388203210014</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1.95363055978497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>74.8062588287357</v>
+        <v>73.6429396267973</v>
       </c>
       <c r="D11" t="n">
-        <v>75.7674028874851</v>
+        <v>74.9427365108468</v>
       </c>
       <c r="E11" t="n">
-        <v>76.6972674102068</v>
+        <v>75.7124011719608</v>
       </c>
       <c r="F11" t="n">
-        <v>75.1941008847315</v>
+        <v>74.0086151241623</v>
       </c>
       <c r="G11" t="n">
-        <v>74.420097555518</v>
+        <v>74.4441296389018</v>
       </c>
       <c r="H11" t="n">
-        <v>71.8607346787126</v>
+        <v>67.5772827408327</v>
       </c>
       <c r="I11" t="n">
-        <v>68.1242934657233</v>
+        <v>68.5342928655977</v>
       </c>
       <c r="J11" t="n">
-        <v>0.387842055995719</v>
+        <v>75.5061945898151</v>
       </c>
       <c r="K11" t="n">
-        <v>-6.68196536301245</v>
+        <v>0.80119001210447</v>
       </c>
       <c r="L11" t="n">
-        <v>-7.06980741900817</v>
+        <v>1.86325496301778</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.73644121298933</v>
+        <v>1.06206495091331</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.97190172421739</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-5.90983677330408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>65.5503371910943</v>
+        <v>66.7504209150727</v>
       </c>
       <c r="D12" t="n">
-        <v>65.5417278731161</v>
+        <v>66.7237323573181</v>
       </c>
       <c r="E12" t="n">
-        <v>64.7318586958542</v>
+        <v>66.2131629968141</v>
       </c>
       <c r="F12" t="n">
-        <v>65.394498987917</v>
+        <v>66.5113638166948</v>
       </c>
       <c r="G12" t="n">
-        <v>64.9891274557861</v>
+        <v>66.3135220600912</v>
       </c>
       <c r="H12" t="n">
-        <v>62.1519199230442</v>
+        <v>62.4851168251932</v>
       </c>
       <c r="I12" t="n">
-        <v>64.0284918720501</v>
+        <v>63.0912578825726</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.155838203177282</v>
+        <v>65.5330467436843</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.52184531904413</v>
+        <v>-0.43689885498145</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.36600711586685</v>
+        <v>-1.21737417138839</v>
       </c>
       <c r="M12" t="n">
-        <v>1.87657194900596</v>
+        <v>-0.780475316406935</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.44178886111169</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-3.22226417751862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
       <c r="C13" t="n">
-        <v>48.2654674097272</v>
+        <v>45.6728426173157</v>
       </c>
       <c r="D13" t="n">
-        <v>49.2830139298563</v>
+        <v>47.3576170883308</v>
       </c>
       <c r="E13" t="n">
-        <v>50.4980000382869</v>
+        <v>48.7545189136293</v>
       </c>
       <c r="F13" t="n">
-        <v>53.2677502636312</v>
+        <v>51.150089534853</v>
       </c>
       <c r="G13" t="n">
-        <v>54.3619821342367</v>
+        <v>53.2205029162681</v>
       </c>
       <c r="H13" t="n">
-        <v>56.8441571297996</v>
+        <v>56.7241383603916</v>
       </c>
       <c r="I13" t="n">
-        <v>56.2432029079085</v>
+        <v>56.4917121877359</v>
       </c>
       <c r="J13" t="n">
-        <v>5.00228285390403</v>
+        <v>57.1996676987073</v>
       </c>
       <c r="K13" t="n">
-        <v>7.97773549818129</v>
+        <v>7.54766029895244</v>
       </c>
       <c r="L13" t="n">
-        <v>2.97545264427726</v>
+        <v>11.5268250813916</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.600954221891108</v>
+        <v>3.97916478243918</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.707955510971352</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.27120927146783</v>
       </c>
     </row>
   </sheetData>

--- a/02_bases_procesadas/02_cambios_grupos_pib.xlsx
+++ b/02_bases_procesadas/02_cambios_grupos_pib.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">grupo_pib</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">value_2022</t>
   </si>
   <si>
+    <t xml:space="preserve">value_2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">diff_2019_2015</t>
   </si>
   <si>
@@ -57,6 +60,15 @@
   </si>
   <si>
     <t xml:space="preserve">diff_2021_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2023_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2023_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff_2023_2022</t>
   </si>
   <si>
     <t xml:space="preserve">PIB per cápita alto</t>
@@ -455,569 +467,725 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>68.2340700006417</v>
+        <v>65.6694515580654</v>
       </c>
       <c r="D2" t="n">
-        <v>68.6071583811757</v>
+        <v>66.8809651835024</v>
       </c>
       <c r="E2" t="n">
-        <v>68.8203042183978</v>
+        <v>66.4106399941677</v>
       </c>
       <c r="F2" t="n">
-        <v>70.0943722052223</v>
+        <v>67.3058909727854</v>
       </c>
       <c r="G2" t="n">
-        <v>70.2728347562498</v>
+        <v>67.702083163405</v>
       </c>
       <c r="H2" t="n">
-        <v>68.8493944087374</v>
+        <v>66.001272114052</v>
       </c>
       <c r="I2" t="n">
-        <v>68.6602673895307</v>
+        <v>66.5948479001953</v>
       </c>
       <c r="J2" t="n">
-        <v>71.3280496342684</v>
+        <v>69.938584615894</v>
       </c>
       <c r="K2" t="n">
-        <v>2.03876475560814</v>
+        <v>70.7343867505797</v>
       </c>
       <c r="L2" t="n">
-        <v>3.09397963362667</v>
+        <v>2.03263160533959</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05521487801853</v>
+        <v>4.2691330578286</v>
       </c>
       <c r="N2" t="n">
-        <v>2.66778224473765</v>
+        <v>2.23650145248901</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.61256736671912</v>
+        <v>3.34373671569861</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.1072352632096</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.03230358717475</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.06493519251434</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.795802134685744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>79.6358152240473</v>
+        <v>78.3826947694315</v>
       </c>
       <c r="D3" t="n">
-        <v>80.1312592907583</v>
+        <v>79.7469404599084</v>
       </c>
       <c r="E3" t="n">
-        <v>79.9355231610577</v>
+        <v>78.8462517275504</v>
       </c>
       <c r="F3" t="n">
-        <v>79.1653777310338</v>
+        <v>77.7117358308468</v>
       </c>
       <c r="G3" t="n">
-        <v>78.4579416606623</v>
+        <v>77.6832014380011</v>
       </c>
       <c r="H3" t="n">
-        <v>74.4736061964514</v>
+        <v>72.9183500723632</v>
       </c>
       <c r="I3" t="n">
-        <v>74.1850071568278</v>
+        <v>73.5096904803882</v>
       </c>
       <c r="J3" t="n">
-        <v>80.3971136394792</v>
+        <v>79.2332135401448</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.17787356338505</v>
+        <v>80.7361562506493</v>
       </c>
       <c r="L3" t="n">
-        <v>0.761298415431881</v>
+        <v>-0.699493331430403</v>
       </c>
       <c r="M3" t="n">
-        <v>1.93917197881693</v>
+        <v>0.850518770713322</v>
       </c>
       <c r="N3" t="n">
-        <v>6.21210648265135</v>
+        <v>1.55001210214373</v>
       </c>
       <c r="O3" t="n">
-        <v>-4.27293450383442</v>
+        <v>5.72352305975662</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-4.17351095761289</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.05295481264822</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.35346148121782</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5029427105045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>72.3462049420463</v>
+        <v>65.3958237674942</v>
       </c>
       <c r="D4" t="n">
-        <v>72.469818877607</v>
+        <v>66.4421958211772</v>
       </c>
       <c r="E4" t="n">
-        <v>72.2615267748057</v>
+        <v>66.2935159688077</v>
       </c>
       <c r="F4" t="n">
-        <v>72.6364849989325</v>
+        <v>66.1948899185829</v>
       </c>
       <c r="G4" t="n">
-        <v>72.410530182124</v>
+        <v>66.2407212810522</v>
       </c>
       <c r="H4" t="n">
-        <v>68.6685741671695</v>
+        <v>62.8878590298294</v>
       </c>
       <c r="I4" t="n">
-        <v>69.0945038925132</v>
+        <v>64.1246532288393</v>
       </c>
       <c r="J4" t="n">
-        <v>70.6921616725369</v>
+        <v>67.1512864802709</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0643252400776362</v>
+        <v>68.2617615344281</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.65404326950943</v>
+        <v>0.844897513557996</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.71836850958707</v>
+        <v>1.7554627127767</v>
       </c>
       <c r="N4" t="n">
-        <v>1.59765778002368</v>
+        <v>0.910565199218709</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.31602628961075</v>
+        <v>3.02663325143153</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-2.11606805221282</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.0210402533759</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.8659377669339</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.11047505415719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7201898358314</v>
+        <v>53.2298361372704</v>
       </c>
       <c r="D5" t="n">
-        <v>53.2203969751617</v>
+        <v>54.4537592694215</v>
       </c>
       <c r="E5" t="n">
-        <v>54.26386271933</v>
+        <v>54.0921522861451</v>
       </c>
       <c r="F5" t="n">
-        <v>58.4812538857007</v>
+        <v>58.0110471689266</v>
       </c>
       <c r="G5" t="n">
-        <v>59.9500324259633</v>
+        <v>59.1823267711615</v>
       </c>
       <c r="H5" t="n">
-        <v>63.4060028625912</v>
+        <v>62.1976072399633</v>
       </c>
       <c r="I5" t="n">
-        <v>62.7012911192511</v>
+        <v>62.1501999913585</v>
       </c>
       <c r="J5" t="n">
-        <v>62.894873590789</v>
+        <v>63.4312538272661</v>
       </c>
       <c r="K5" t="n">
-        <v>7.22984259013183</v>
+        <v>63.2052424666617</v>
       </c>
       <c r="L5" t="n">
-        <v>10.1746837549576</v>
+        <v>5.95249063389114</v>
       </c>
       <c r="M5" t="n">
-        <v>2.94484116482573</v>
+        <v>10.2014176899957</v>
       </c>
       <c r="N5" t="n">
-        <v>0.193582471537937</v>
+        <v>4.24892705610459</v>
       </c>
       <c r="O5" t="n">
-        <v>2.7512586932878</v>
+        <v>1.28105383590768</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.96787322019691</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.02291569550015</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9.97540632939129</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.226011360604438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="n">
-        <v>57.3821575647902</v>
+        <v>56.233022518869</v>
       </c>
       <c r="D6" t="n">
-        <v>57.7550174227112</v>
+        <v>57.4284117719658</v>
       </c>
       <c r="E6" t="n">
-        <v>58.4685826950079</v>
+        <v>57.5423196178647</v>
       </c>
       <c r="F6" t="n">
-        <v>59.3997107630586</v>
+        <v>58.6534415840207</v>
       </c>
       <c r="G6" t="n">
-        <v>59.6519869072905</v>
+        <v>58.6313653868902</v>
       </c>
       <c r="H6" t="n">
-        <v>58.4394769384747</v>
+        <v>56.9772624404417</v>
       </c>
       <c r="I6" t="n">
-        <v>57.2178870627171</v>
+        <v>56.6466034980062</v>
       </c>
       <c r="J6" t="n">
-        <v>60.6603650699118</v>
+        <v>60.4924882653418</v>
       </c>
       <c r="K6" t="n">
-        <v>2.26982934250029</v>
+        <v>61.1855498904333</v>
       </c>
       <c r="L6" t="n">
-        <v>3.27820750512164</v>
+        <v>2.39834286802116</v>
       </c>
       <c r="M6" t="n">
-        <v>1.00837816262135</v>
+        <v>4.25946574647278</v>
       </c>
       <c r="N6" t="n">
-        <v>3.44247800719468</v>
+        <v>1.86112287845162</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.43409984457333</v>
+        <v>3.84588476733556</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.98476188888394</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.55418450354313</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.95252737156429</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.693061625091516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>66.1184356123093</v>
+        <v>70.9436090360767</v>
       </c>
       <c r="D7" t="n">
-        <v>66.315484461408</v>
+        <v>71.9408356783591</v>
       </c>
       <c r="E7" t="n">
-        <v>67.7997053034474</v>
+        <v>72.3313062177486</v>
       </c>
       <c r="F7" t="n">
-        <v>67.5740806325383</v>
+        <v>71.9860328144804</v>
       </c>
       <c r="G7" t="n">
-        <v>67.1639630242267</v>
+        <v>71.3337939520668</v>
       </c>
       <c r="H7" t="n">
-        <v>64.6515005093214</v>
+        <v>67.3542434522303</v>
       </c>
       <c r="I7" t="n">
-        <v>63.0433005068868</v>
+        <v>66.3844069302443</v>
       </c>
       <c r="J7" t="n">
-        <v>68.4776219811371</v>
+        <v>71.8980346087744</v>
       </c>
       <c r="K7" t="n">
-        <v>1.04552741191733</v>
+        <v>72.3387435592798</v>
       </c>
       <c r="L7" t="n">
-        <v>2.35918636882781</v>
+        <v>0.39018491599009</v>
       </c>
       <c r="M7" t="n">
-        <v>1.31365895691047</v>
+        <v>0.954425572697659</v>
       </c>
       <c r="N7" t="n">
-        <v>5.43432147425035</v>
+        <v>0.564240656707568</v>
       </c>
       <c r="O7" t="n">
-        <v>-4.12066251733988</v>
+        <v>5.51362767853006</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-4.94938702182249</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.00494960721295</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.39513452320304</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.440708950505382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>64.90135245554</v>
+        <v>55.4544784615451</v>
       </c>
       <c r="D8" t="n">
-        <v>65.2457334510411</v>
+        <v>57.0584290082595</v>
       </c>
       <c r="E8" t="n">
-        <v>64.0482705348207</v>
+        <v>56.8956006973646</v>
       </c>
       <c r="F8" t="n">
-        <v>64.2703273998258</v>
+        <v>57.0527730619838</v>
       </c>
       <c r="G8" t="n">
-        <v>63.8980809920516</v>
+        <v>56.599580252974</v>
       </c>
       <c r="H8" t="n">
-        <v>59.9864005832113</v>
+        <v>52.8758632674446</v>
       </c>
       <c r="I8" t="n">
-        <v>58.3369443188506</v>
+        <v>52.5507991260165</v>
       </c>
       <c r="J8" t="n">
-        <v>62.285039588034</v>
+        <v>57.1241877865791</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.00327146348838</v>
+        <v>58.8768716386481</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.61631286750605</v>
+        <v>1.14510179142896</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.61304140401766</v>
+        <v>1.66970932503406</v>
       </c>
       <c r="N8" t="n">
-        <v>3.94809526918339</v>
+        <v>0.524607533605099</v>
       </c>
       <c r="O8" t="n">
-        <v>-5.56113667320106</v>
+        <v>4.57338866056258</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-4.04878112695748</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.2772913856741</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.42239317710305</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.752683852069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>41.1266846265211</v>
+        <v>42.3009800589852</v>
       </c>
       <c r="D9" t="n">
-        <v>41.7038343556844</v>
+        <v>43.2859706292787</v>
       </c>
       <c r="E9" t="n">
-        <v>43.5577722467554</v>
+        <v>43.4000519384808</v>
       </c>
       <c r="F9" t="n">
-        <v>46.3547242568116</v>
+        <v>46.9215188755981</v>
       </c>
       <c r="G9" t="n">
-        <v>47.8939167055931</v>
+        <v>47.9607219556296</v>
       </c>
       <c r="H9" t="n">
-        <v>50.6805297228915</v>
+        <v>50.7016806016502</v>
       </c>
       <c r="I9" t="n">
-        <v>50.273416362414</v>
+        <v>51.0046044377578</v>
       </c>
       <c r="J9" t="n">
-        <v>51.2184336405643</v>
+        <v>52.4552424006718</v>
       </c>
       <c r="K9" t="n">
-        <v>6.76723207907198</v>
+        <v>52.3410344733719</v>
       </c>
       <c r="L9" t="n">
-        <v>10.0917490140432</v>
+        <v>5.65974189664443</v>
       </c>
       <c r="M9" t="n">
-        <v>3.32451693497117</v>
+        <v>10.1542623416866</v>
       </c>
       <c r="N9" t="n">
-        <v>0.945017278150281</v>
+        <v>4.49452044504221</v>
       </c>
       <c r="O9" t="n">
-        <v>2.37949965682089</v>
+        <v>1.45063796291403</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.04388248212818</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.38031251774233</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10.0400544143868</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.114207927299887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>62.0220677197286</v>
+        <v>61.321136589038</v>
       </c>
       <c r="D10" t="n">
-        <v>63.0080286521652</v>
+        <v>62.3486142555671</v>
       </c>
       <c r="E10" t="n">
-        <v>63.5600276941347</v>
+        <v>62.4899678805905</v>
       </c>
       <c r="F10" t="n">
-        <v>63.8900228252366</v>
+        <v>62.6849416305735</v>
       </c>
       <c r="G10" t="n">
-        <v>64.6593848717537</v>
+        <v>63.1384612840913</v>
       </c>
       <c r="H10" t="n">
-        <v>62.2621793088058</v>
+        <v>61.5918306126199</v>
       </c>
       <c r="I10" t="n">
-        <v>62.7057543119687</v>
+        <v>61.7725665427584</v>
       </c>
       <c r="J10" t="n">
-        <v>66.0796363440689</v>
+        <v>65.1682102729545</v>
       </c>
       <c r="K10" t="n">
-        <v>2.63731715202514</v>
+        <v>66.2849030843709</v>
       </c>
       <c r="L10" t="n">
-        <v>4.05756862434031</v>
+        <v>1.81732469505332</v>
       </c>
       <c r="M10" t="n">
-        <v>1.42025147231517</v>
+        <v>3.84707368391655</v>
       </c>
       <c r="N10" t="n">
-        <v>3.37388203210014</v>
+        <v>2.02974898886323</v>
       </c>
       <c r="O10" t="n">
-        <v>-1.95363055978497</v>
+        <v>3.39564373019617</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1.36589474133294</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.14644180027958</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.9637664953329</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.11669281141636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" t="n">
-        <v>73.6429396267973</v>
+        <v>76.3843629541116</v>
       </c>
       <c r="D11" t="n">
-        <v>74.9427365108468</v>
+        <v>76.6065447811295</v>
       </c>
       <c r="E11" t="n">
-        <v>75.7124011719608</v>
+        <v>77.3503733684861</v>
       </c>
       <c r="F11" t="n">
-        <v>74.0086151241623</v>
+        <v>75.6454857870372</v>
       </c>
       <c r="G11" t="n">
-        <v>74.4441296389018</v>
+        <v>74.9918612550268</v>
       </c>
       <c r="H11" t="n">
-        <v>67.5772827408327</v>
+        <v>70.9947444520056</v>
       </c>
       <c r="I11" t="n">
-        <v>68.5342928655977</v>
+        <v>71.0039006676556</v>
       </c>
       <c r="J11" t="n">
-        <v>75.5061945898151</v>
+        <v>76.0893043381522</v>
       </c>
       <c r="K11" t="n">
-        <v>0.80119001210447</v>
+        <v>77.4025727372357</v>
       </c>
       <c r="L11" t="n">
-        <v>1.86325496301778</v>
+        <v>-1.39250169908473</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06206495091331</v>
+        <v>-0.295058615959334</v>
       </c>
       <c r="N11" t="n">
-        <v>6.97190172421739</v>
+        <v>1.0974430831254</v>
       </c>
       <c r="O11" t="n">
-        <v>-5.90983677330408</v>
+        <v>5.08540367049663</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-3.98796058737123</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.41071148220882</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.01820978312409</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.31326839908343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>66.7504209150727</v>
+        <v>60.2941060720466</v>
       </c>
       <c r="D12" t="n">
-        <v>66.7237323573181</v>
+        <v>61.8811849157406</v>
       </c>
       <c r="E12" t="n">
-        <v>66.2131629968141</v>
+        <v>61.9868561953051</v>
       </c>
       <c r="F12" t="n">
-        <v>66.5113638166948</v>
+        <v>61.1632999598462</v>
       </c>
       <c r="G12" t="n">
-        <v>66.3135220600912</v>
+        <v>60.9297072156358</v>
       </c>
       <c r="H12" t="n">
-        <v>62.4851168251932</v>
+        <v>57.6381872431174</v>
       </c>
       <c r="I12" t="n">
-        <v>63.0912578825726</v>
+        <v>58.563683789609</v>
       </c>
       <c r="J12" t="n">
-        <v>65.5330467436843</v>
+        <v>61.9555851022167</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.43689885498145</v>
+        <v>63.8268924021163</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.21737417138839</v>
+        <v>0.635601143589199</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.780475316406935</v>
+        <v>1.66147903017003</v>
       </c>
       <c r="N12" t="n">
-        <v>2.44178886111169</v>
+        <v>1.02587788658083</v>
       </c>
       <c r="O12" t="n">
-        <v>-3.22226417751862</v>
+        <v>3.39190131260766</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-2.36602342602684</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.89718518648048</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.53278633006968</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.87130729989966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>45.6728426173157</v>
+        <v>47.2849407409558</v>
       </c>
       <c r="D13" t="n">
-        <v>47.3576170883308</v>
+        <v>48.5581130698313</v>
       </c>
       <c r="E13" t="n">
-        <v>48.7545189136293</v>
+        <v>48.1326740779802</v>
       </c>
       <c r="F13" t="n">
-        <v>51.150089534853</v>
+        <v>51.2460391448372</v>
       </c>
       <c r="G13" t="n">
-        <v>53.2205029162681</v>
+        <v>53.4938153816112</v>
       </c>
       <c r="H13" t="n">
-        <v>56.7241383603916</v>
+        <v>56.1425601427366</v>
       </c>
       <c r="I13" t="n">
-        <v>56.4917121877359</v>
+        <v>55.7501151710105</v>
       </c>
       <c r="J13" t="n">
-        <v>57.1996676987073</v>
+        <v>57.4597413784947</v>
       </c>
       <c r="K13" t="n">
-        <v>7.54766029895244</v>
+        <v>57.6252441137607</v>
       </c>
       <c r="L13" t="n">
-        <v>11.5268250813916</v>
+        <v>6.20887464065543</v>
       </c>
       <c r="M13" t="n">
-        <v>3.97916478243918</v>
+        <v>10.1748006375389</v>
       </c>
       <c r="N13" t="n">
-        <v>0.707955510971352</v>
+        <v>3.96592599688351</v>
       </c>
       <c r="O13" t="n">
-        <v>3.27120927146783</v>
+        <v>1.70962620748423</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.25629978939928</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.13142873214949</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10.3403033728049</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.165502735265989</v>
       </c>
     </row>
   </sheetData>
